--- a/StructureDefinition-Bundle-dgc.xlsx
+++ b/StructureDefinition-Bundle-dgc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8633" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8634" uniqueCount="329">
   <si>
     <t>Path</t>
   </si>
@@ -925,10 +925,10 @@
 </t>
   </si>
   <si>
-    <t>Smart Vaccination Card composition</t>
-  </si>
-  <si>
-    <t>Smart Vaccination Card composition. 
+    <t>Digital Green Certificate composition</t>
+  </si>
+  <si>
+    <t>Digital Green Certificate composition. 
 A composition is a set of healthcare-related information that is assembled together into a single logical document that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. 
 While a Composition defines the structure, it does not actually contain the content: rather the full content of a document is contained in a Bundle, of which the Composition is the first resource contained.</t>
   </si>
@@ -1034,7 +1034,11 @@
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
-    <t>binary</t>
+    <t>immunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {http://hl7.it/fhir/dgc/StructureDefinition/Observation-CovidImmunity}
+</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -25086,7 +25090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
         <v>194</v>
       </c>
@@ -25104,7 +25108,7 @@
         <v>42</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H217" t="s" s="2">
         <v>40</v>
@@ -25750,40 +25754,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>210</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F223" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M223" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
         <v>40</v>
@@ -25844,13 +25850,13 @@
         <v>40</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>40</v>
@@ -28616,7 +28622,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -28639,19 +28645,19 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>40</v>
@@ -28700,7 +28706,7 @@
         <v>40</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
